--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value625.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value625.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.2383064458183</v>
+        <v>1.293073296546936</v>
       </c>
       <c r="B1">
-        <v>2.380793099901133</v>
+        <v>2.89946460723877</v>
       </c>
       <c r="C1">
-        <v>4.046647366385208</v>
+        <v>5.174674034118652</v>
       </c>
       <c r="D1">
-        <v>2.841956472000795</v>
+        <v>1.859684824943542</v>
       </c>
       <c r="E1">
-        <v>1.074432370214326</v>
+        <v>1.011667728424072</v>
       </c>
     </row>
   </sheetData>
